--- a/data/bpd_acv.xlsx
+++ b/data/bpd_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9011087168529619</v>
+        <v>0.9095535075871932</v>
       </c>
       <c r="D2">
-        <v>0.8977023313905079</v>
+        <v>0.01015304968933212</v>
       </c>
       <c r="E2">
-        <v>0.8881590319792567</v>
+        <v>0.8988380147739339</v>
       </c>
       <c r="F2">
-        <v>0.8807708753283245</v>
+        <v>0.007445084132257713</v>
       </c>
       <c r="G2">
-        <v>0.8800376684027444</v>
+        <v>0.8880148310533601</v>
+      </c>
+      <c r="H2">
+        <v>0.01197825427050512</v>
+      </c>
+      <c r="I2">
+        <v>0.8786682992495848</v>
+      </c>
+      <c r="J2">
+        <v>0.01919816365316406</v>
+      </c>
+      <c r="K2">
+        <v>0.8744435018663047</v>
+      </c>
+      <c r="L2">
+        <v>0.01341383347521556</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.9017516743280053</v>
+        <v>0.9119935912714174</v>
       </c>
       <c r="D3">
-        <v>0.8977013599777962</v>
+        <v>0.00876623223729628</v>
       </c>
       <c r="E3">
-        <v>0.8929991356957648</v>
+        <v>0.9055813900670563</v>
       </c>
       <c r="F3">
-        <v>0.8893670863984223</v>
+        <v>0.006210177132949237</v>
       </c>
       <c r="G3">
-        <v>0.8833160823762942</v>
+        <v>0.8929142223800717</v>
+      </c>
+      <c r="H3">
+        <v>0.01129297585710078</v>
+      </c>
+      <c r="I3">
+        <v>0.8862379704416566</v>
+      </c>
+      <c r="J3">
+        <v>0.0168819316220737</v>
+      </c>
+      <c r="K3">
+        <v>0.8763426083022283</v>
+      </c>
+      <c r="L3">
+        <v>0.01390509824264928</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.854319365294524</v>
+        <v>0.8579825746140198</v>
       </c>
       <c r="D4">
-        <v>0.8620473216763809</v>
+        <v>0.01101777327952865</v>
       </c>
       <c r="E4">
-        <v>0.8591184096802074</v>
+        <v>0.8521360314783587</v>
       </c>
       <c r="F4">
-        <v>0.8688089566044488</v>
+        <v>0.01647407510778245</v>
       </c>
       <c r="G4">
-        <v>0.8730069653598953</v>
+        <v>0.8605412538424797</v>
+      </c>
+      <c r="H4">
+        <v>0.01671472183098274</v>
+      </c>
+      <c r="I4">
+        <v>0.8720452397319127</v>
+      </c>
+      <c r="J4">
+        <v>0.01491086224952488</v>
+      </c>
+      <c r="K4">
+        <v>0.8658771632168307</v>
+      </c>
+      <c r="L4">
+        <v>0.00999786833719731</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.874576600021212</v>
+        <v>0.8781584174147931</v>
       </c>
       <c r="D5">
-        <v>0.8793734388009991</v>
+        <v>0.01617647336543993</v>
       </c>
       <c r="E5">
-        <v>0.8838375108038029</v>
+        <v>0.8748948166317476</v>
       </c>
       <c r="F5">
-        <v>0.874041030742515</v>
+        <v>0.01276964486882566</v>
       </c>
       <c r="G5">
-        <v>0.8746476823773923</v>
+        <v>0.8771631170930645</v>
+      </c>
+      <c r="H5">
+        <v>0.01420545074268068</v>
+      </c>
+      <c r="I5">
+        <v>0.8691975282121784</v>
+      </c>
+      <c r="J5">
+        <v>0.01358393351739461</v>
+      </c>
+      <c r="K5">
+        <v>0.8713460015835313</v>
+      </c>
+      <c r="L5">
+        <v>0.008888284668409033</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8586580024988812</v>
+        <v>0.8636791928179868</v>
       </c>
       <c r="D6">
-        <v>0.8572157923952262</v>
+        <v>0.01454898135759998</v>
       </c>
       <c r="E6">
-        <v>0.8573898012100258</v>
+        <v>0.8750648701744824</v>
       </c>
       <c r="F6">
-        <v>0.8525563496426608</v>
+        <v>0.0150767445012826</v>
       </c>
       <c r="G6">
-        <v>0.8582443559169868</v>
+        <v>0.8670205013900285</v>
+      </c>
+      <c r="H6">
+        <v>0.01519433324703699</v>
+      </c>
+      <c r="I6">
+        <v>0.8591707481239619</v>
+      </c>
+      <c r="J6">
+        <v>0.009401642012249946</v>
+      </c>
+      <c r="K6">
+        <v>0.8539910643592353</v>
+      </c>
+      <c r="L6">
+        <v>0.01490232695084443</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8253685591078529</v>
+        <v>0.9100389290537857</v>
       </c>
       <c r="D7">
-        <v>0.8135673050235915</v>
+        <v>0.00703443734668265</v>
       </c>
       <c r="E7">
-        <v>0.8025929127052723</v>
+        <v>0.9042326014501395</v>
       </c>
       <c r="F7">
-        <v>0.8007837901515746</v>
+        <v>0.01091795644045563</v>
       </c>
       <c r="G7">
-        <v>0.7685139375835666</v>
+        <v>0.8953605501328795</v>
+      </c>
+      <c r="H7">
+        <v>0.01365842593497318</v>
+      </c>
+      <c r="I7">
+        <v>0.8960853812224322</v>
+      </c>
+      <c r="J7">
+        <v>0.01582705342689686</v>
+      </c>
+      <c r="K7">
+        <v>0.8872825472231648</v>
+      </c>
+      <c r="L7">
+        <v>0.01530033115993424</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7758473819951213</v>
+        <v>0.9105280580493101</v>
       </c>
       <c r="D8">
-        <v>0.7944014709963919</v>
+        <v>0.007528987134322255</v>
       </c>
       <c r="E8">
-        <v>0.7823681936041486</v>
+        <v>0.9038964689049005</v>
       </c>
       <c r="F8">
-        <v>0.8043411258584431</v>
+        <v>0.008643830714888164</v>
       </c>
       <c r="G8">
-        <v>0.8095239010408231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.9025564382406428</v>
-      </c>
-      <c r="D9">
-        <v>0.9007006661115737</v>
-      </c>
-      <c r="E9">
-        <v>0.8971477960242005</v>
-      </c>
-      <c r="F9">
-        <v>0.896281403527143</v>
-      </c>
-      <c r="G9">
-        <v>0.8957334768320104</v>
+        <v>0.900786254026184</v>
+      </c>
+      <c r="H8">
+        <v>0.01389135375833084</v>
+      </c>
+      <c r="I8">
+        <v>0.8949483015409292</v>
+      </c>
+      <c r="J8">
+        <v>0.01819129910625266</v>
+      </c>
+      <c r="K8">
+        <v>0.892991177468612</v>
+      </c>
+      <c r="L8">
+        <v>0.01224487369078438</v>
       </c>
     </row>
   </sheetData>
